--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\culiu\USACO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\python\usaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A91DB24-4C28-42D4-BA7E-0F5C758ACF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73569BDA-2570-4BAA-9AE7-E90E7B5CCFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Silver!$A$1:$V$72</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="284">
   <si>
     <t>难度</t>
   </si>
@@ -1052,6 +1051,39 @@
   </si>
   <si>
     <t>字典</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=1347</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2023 December Contest, Bronze
+Problem 1. Candy Cane Feast</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=1348</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2023 December Contest, Bronze
+Problem 2. Cowntact Tracing 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=1349</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2023 December Contest, Bronze
+Problem 3. Farmer John Actually Farms</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序+bound问题</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1447,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z73"/>
+  <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1458,7 +1490,7 @@
     <col min="1" max="1" width="33.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.58203125" style="4" customWidth="1"/>
     <col min="5" max="6" width="12.83203125" style="4" customWidth="1"/>
     <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
     <col min="9" max="10" width="19.83203125" style="4" customWidth="1"/>
@@ -2905,6 +2937,48 @@
       </c>
       <c r="J73" s="4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2981,9 +3055,12 @@
     <hyperlink ref="B70" r:id="rId69" xr:uid="{A90B49D9-6415-492A-A720-AB6EA543E49E}"/>
     <hyperlink ref="B72" r:id="rId70" xr:uid="{B0E1726C-D472-43B2-92C3-C47D8744D4EF}"/>
     <hyperlink ref="B73" r:id="rId71" xr:uid="{90E18CFB-FB27-43C1-A005-B5DF2E632278}"/>
+    <hyperlink ref="B74" r:id="rId72" xr:uid="{C22EB301-0123-4818-8D70-7B5CE95D5815}"/>
+    <hyperlink ref="B75" r:id="rId73" xr:uid="{70371EF8-6844-47D7-90BC-4E60E084FAC8}"/>
+    <hyperlink ref="B76" r:id="rId74" xr:uid="{AFDF48DE-AF83-48C1-A093-A5A4D07CD3D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId72"/>
+  <pageSetup orientation="portrait" r:id="rId75"/>
 </worksheet>
 </file>
 

--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\python\usaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73569BDA-2570-4BAA-9AE7-E90E7B5CCFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDB34BA-5055-41C8-B3F4-01BA15951B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bronze" sheetId="1" r:id="rId1"/>
@@ -1481,23 +1481,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.58203125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.83203125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.83203125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.9140625" style="4"/>
+    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.77734375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>109</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>55</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>64</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>66</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>68</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>71</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>73</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>75</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>33</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>77</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>79</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>81</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>84</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>86</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>88</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>90</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>92</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>94</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>97</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>99</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>102</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>104</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>107</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>112</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>114</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>116</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>119</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>121</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>124</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>126</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>129</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>131</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>133</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>135</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>137</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>139</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>141</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>143</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>145</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>147</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>149</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>151</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>154</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>156</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>157</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>159</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>161</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>163</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>165</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>168</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>278</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>280</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>282</v>
       </c>
@@ -3072,19 +3072,19 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.83203125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.83203125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.9140625" style="4"/>
+    <col min="5" max="6" width="12.77734375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>169</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>171</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>173</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>175</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>177</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>179</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>181</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>183</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>185</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>187</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>189</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>191</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>193</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>195</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>197</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>214</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>218</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>221</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>222</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>225</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>228</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>231</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>234</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>237</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>240</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>243</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>246</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>248</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>251</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>254</v>
       </c>
@@ -3518,175 +3518,175 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="3"/>
     </row>

--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\python\usaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDB34BA-5055-41C8-B3F4-01BA15951B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C6BF07-019B-48D1-967B-D7A6A6BBA846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1481,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1582,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">

--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\python\usaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C6BF07-019B-48D1-967B-D7A6A6BBA846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2E6FB3-4D31-4849-8656-B01684FC04F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6072" yWindow="4128" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bronze" sheetId="1" r:id="rId1"/>
-    <sheet name="Silver" sheetId="3" r:id="rId2"/>
+    <sheet name="Gold" sheetId="5" r:id="rId2"/>
+    <sheet name="Silver" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bronze!$A$1:$V$71</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Silver!$A$1:$V$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Gold!$A$1:$V$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Silver!$A$1:$V$72</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="314">
   <si>
     <t>难度</t>
   </si>
@@ -1083,7 +1085,139 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>排序+bound问题</t>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1371</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2024 January Contest, Bronze
+Problem 1. Majority Opinion</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1372</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2024 January Contest, Bronze
+Problem 2. Cannonball</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1373</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2024 January Contest, Bronze
+Problem 3. Balancing Bacteria</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1395</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2024 February Contest, Bronze
+Problem 1. Palindrome Game</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Theory</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1396</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2024 February Contest, Bronze
+Problem 2. Milk Exchange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1397</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2024 February Contest, Bronze
+Problem 3. Maximizing Productivity</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心 + 排序+合理区间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2016 December Contest, Gold
+Problem 3. Lasers and Mirrors</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=671</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS 最短路问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2018 January Contest, Gold
+Problem 2. Cow at Large</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=790</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS + 子树问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2020 February Contest, Gold
+Problem 1. Timeline</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1017</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>topological sort</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2019 December Contest, Gold
+Problem 1. Milk Pumping</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=969</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2017 February Contest, Gold
+Problem 1. Why Did the Cow Cross the Road</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=717</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dijastra（跨k个节点）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dijastra（封禁部分边）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1479,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z76"/>
+  <dimension ref="A1:Z82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A81" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2978,7 +3112,91 @@
         <v>199</v>
       </c>
       <c r="D76" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>283</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3058,13 +3276,409 @@
     <hyperlink ref="B74" r:id="rId72" xr:uid="{C22EB301-0123-4818-8D70-7B5CE95D5815}"/>
     <hyperlink ref="B75" r:id="rId73" xr:uid="{70371EF8-6844-47D7-90BC-4E60E084FAC8}"/>
     <hyperlink ref="B76" r:id="rId74" xr:uid="{AFDF48DE-AF83-48C1-A093-A5A4D07CD3D2}"/>
+    <hyperlink ref="B77" r:id="rId75" xr:uid="{535A0A0C-E3F6-4CB7-AC50-FF6CC3441249}"/>
+    <hyperlink ref="B78" r:id="rId76" xr:uid="{6240EC2D-904F-4080-9760-9FF8E80BFA80}"/>
+    <hyperlink ref="B79" r:id="rId77" xr:uid="{90EBB431-1598-495B-96D9-A6600CCBDAC0}"/>
+    <hyperlink ref="B80" r:id="rId78" xr:uid="{1A486192-B714-4F9C-95BB-011F68844058}"/>
+    <hyperlink ref="B81" r:id="rId79" xr:uid="{7452191C-ACDC-4762-BF3D-BD1800F788BA}"/>
+    <hyperlink ref="B82" r:id="rId80" xr:uid="{CB7BE34C-A276-4F12-A3C2-0593E05D30E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId75"/>
+  <pageSetup orientation="portrait" r:id="rId81"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2EC434-4972-4C28-AD0E-1D19D4297636}">
+  <dimension ref="A1:D74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.77734375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{94B6D4C4-098E-4856-90E3-52B84FC90C32}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{52D43014-54FE-441A-ABF5-EE1E0AEFC91D}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{65919B28-58D0-4003-B282-2F3EFDC51270}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{2B71BD8E-5A4C-4AE8-B3C9-C910228BDD19}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{EAB2B6A4-F242-4CBD-95AE-73D510FECA6B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
   <dimension ref="A1:D74"/>
   <sheetViews>

--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\python\usaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2E6FB3-4D31-4849-8656-B01684FC04F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37714B4-D8C9-43B5-B17B-25BEEE9E537C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6072" yWindow="4128" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bronze" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="323">
   <si>
     <t>难度</t>
   </si>
@@ -1218,6 +1218,47 @@
   </si>
   <si>
     <t>dijastra（封禁部分边）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2018 December Contest, Gold
+Problem 1. Fine Dining</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=861</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dijastra (必须经过某些节点)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2016 US Open Contest, Gold
+Problem 2. Closing the Farm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=646</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集(连通块数量) + 逆序加点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>union-find set (no recursion) + 各个连通块的大小 + sort optimization</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2018 January Contest, Gold
+Problem 1. MooTube</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=789</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3292,8 +3333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2EC434-4972-4C28-AD0E-1D19D4297636}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3301,7 +3342,7 @@
     <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="73.6640625" style="4" customWidth="1"/>
     <col min="5" max="6" width="12.77734375" style="4" customWidth="1"/>
     <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
     <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
@@ -3393,16 +3434,46 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -3672,9 +3743,12 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{65919B28-58D0-4003-B282-2F3EFDC51270}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{2B71BD8E-5A4C-4AE8-B3C9-C910228BDD19}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{EAB2B6A4-F242-4CBD-95AE-73D510FECA6B}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{BE20BC9E-7A64-4168-B764-A4BE728D5CBE}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{0284BD55-F258-4878-BBB8-FE3CF21411F4}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{8ACF4038-D591-4AF2-9FD3-BFA6DA428C33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\python\usaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37714B4-D8C9-43B5-B17B-25BEEE9E537C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1FC939-2EC8-4B18-8880-BB779E7E0CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="334">
   <si>
     <t>难度</t>
   </si>
@@ -1248,10 +1248,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>union-find set (no recursion) + 各个连通块的大小 + sort optimization</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 USACO 2018 January Contest, Gold
 Problem 1. MooTube</t>
@@ -1259,6 +1255,59 @@
   </si>
   <si>
     <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=789</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2016 December Contest, Gold
+Problem 1. Moocast</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=669</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2019 January Contest, Gold
+Problem 3. Shortcut</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=899</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dijastra(添加一条边) + dfs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2016 February Contest, Gold
+Problem 3. Fenced In</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=623</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">kruskal </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集 (no recursion) + 各个连通块的大小 + sort optimization</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>kruskal + 数据压缩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3331,10 +3380,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2EC434-4972-4C28-AD0E-1D19D4297636}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3349,7 +3398,7 @@
     <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3362,8 +3411,11 @@
       <c r="D1" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>299</v>
       </c>
@@ -3377,7 +3429,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>302</v>
       </c>
@@ -3391,7 +3443,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>305</v>
       </c>
@@ -3405,7 +3457,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>308</v>
       </c>
@@ -3419,7 +3471,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>310</v>
       </c>
@@ -3433,7 +3485,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>314</v>
       </c>
@@ -3447,7 +3499,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>317</v>
       </c>
@@ -3461,45 +3513,81 @@
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="3"/>
     </row>
@@ -3746,9 +3834,12 @@
     <hyperlink ref="B7" r:id="rId6" xr:uid="{BE20BC9E-7A64-4168-B764-A4BE728D5CBE}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{0284BD55-F258-4878-BBB8-FE3CF21411F4}"/>
     <hyperlink ref="B9" r:id="rId8" xr:uid="{8ACF4038-D591-4AF2-9FD3-BFA6DA428C33}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{753DF24E-FE38-42ED-B2BD-9A1FB2B2C396}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{CB112712-7652-4B77-B54B-985BCF149AC1}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{F7F4D1BF-0893-4C89-B63C-543FAA5CE425}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\python\usaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1FC939-2EC8-4B18-8880-BB779E7E0CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9518C6-87C0-4808-9B3D-475489DD8D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="346">
   <si>
     <t>难度</t>
   </si>
@@ -1308,6 +1308,59 @@
   </si>
   <si>
     <t>C++</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2019 US Open Contest, Gold
+Problem 1. Snakes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=945</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间dp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2018 December Contest, Gold
+Problem 3. Teamwork</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=863</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性dp + 线段树</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2017 January Contest, Gold
+Problem 2. Hoof, Paper, Scissors</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=694</t>
+  </si>
+  <si>
+    <t>线性dp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2018 US Open Contest, Gold
+Problem 2. Milking Order</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=838</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓扑排序</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3383,7 +3436,7 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3576,20 +3629,69 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
@@ -3837,9 +3939,13 @@
     <hyperlink ref="B10" r:id="rId9" xr:uid="{753DF24E-FE38-42ED-B2BD-9A1FB2B2C396}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{CB112712-7652-4B77-B54B-985BCF149AC1}"/>
     <hyperlink ref="B12" r:id="rId11" xr:uid="{F7F4D1BF-0893-4C89-B63C-543FAA5CE425}"/>
+    <hyperlink ref="A15" r:id="rId12" display="https://usaco.org/index.php?page=viewproblem2&amp;cpid=694" xr:uid="{851CD2F0-75DB-43F2-9638-8C3372AB755E}"/>
+    <hyperlink ref="B13" r:id="rId13" xr:uid="{21C9CA01-17A0-412D-B0C7-2509005B116C}"/>
+    <hyperlink ref="B14" r:id="rId14" xr:uid="{F3103746-6E32-48E7-8DCA-395FDB8F6CB4}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{E9FADEF1-6077-438B-915D-2D5681C051FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\python\usaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9518C6-87C0-4808-9B3D-475489DD8D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66E187B-EC36-4EF7-A157-DD31C7544F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="361">
   <si>
     <t>难度</t>
   </si>
@@ -1361,6 +1361,73 @@
   </si>
   <si>
     <t>拓扑排序</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未整理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2015 December Contest, Gold
+Problem 2. Fruit Feast</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=574</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全背包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2018 US Open Contest, Gold
+Problem 3. Talent Show</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=839</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>01背包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全背包 + 组合数学</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2019 January Contest, Gold
+Problem 1. Cow Poetry</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=897</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2016 December Contest, Gold
+Problem 2. Cow Checklist</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=670</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>path dp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2016 January Contest, Gold
+Problem 2. Radio Contact</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=598</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3435,8 +3502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2EC434-4972-4C28-AD0E-1D19D4297636}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3481,6 +3548,9 @@
       <c r="D2" s="4" t="s">
         <v>301</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3495,6 +3565,9 @@
       <c r="D3" s="4" t="s">
         <v>304</v>
       </c>
+      <c r="E3" s="4" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3693,67 +3766,126 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="3"/>
     </row>
@@ -3943,9 +4075,14 @@
     <hyperlink ref="B13" r:id="rId13" xr:uid="{21C9CA01-17A0-412D-B0C7-2509005B116C}"/>
     <hyperlink ref="B14" r:id="rId14" xr:uid="{F3103746-6E32-48E7-8DCA-395FDB8F6CB4}"/>
     <hyperlink ref="B16" r:id="rId15" xr:uid="{E9FADEF1-6077-438B-915D-2D5681C051FA}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{BB3F488E-2288-41FD-ADB2-CF3EC3FB0FB2}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{7CA8642F-B9C7-450E-A616-7721BE6A9794}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{1A4FDBD4-5695-4B69-9571-94589710D59D}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{734FE5BB-C956-47D0-95D2-91E4F839DCB0}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{59AF3CBE-EDA1-458B-84F2-6C6510A04F1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\python\usaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66E187B-EC36-4EF7-A157-DD31C7544F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80B0088-152F-4205-A73D-A88757B82D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="984" yWindow="2172" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bronze" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Silver!$A$1:$V$72</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="405">
   <si>
     <t>难度</t>
   </si>
@@ -1428,6 +1429,201 @@
   </si>
   <si>
     <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=598</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2序列匹配问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>path dp + 2序列匹配问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=718</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2017 February Contest, Gold
+Problem 2. Why Did the Cow Cross the Road II</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2014 December Contest, Gold
+Problem 3. Cow Jog</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=496</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>递减子序列划分问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>划分dp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2013 March Contest, Gold
+Problem 1. The Cow Run</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=265</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2016 US Open Contest, Gold
+Problem 3. 248</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=647</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间dp (例题)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2021 February Contest, Gold
+Problem 2. Modern Art 3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1114</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2021 February Contest, Gold
+Problem 1. Stone Game</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1113</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>博弈论+前缀和优化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2021 January Contest, Gold
+Problem 1. Uddered but not Herd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1089</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态压缩dp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2025 February Contest, Gold
+Problem 3. Friendship Editing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1499</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图论+状态压缩dp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2021 January Contest, Gold
+Problem 2. Telephone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1090</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分层图 + bfs最短路</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2021 January Contest, Silver
+Problem 1. Dance Mooves</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>union-find set</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1086</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2025 January Contest, Gold
+Problem 2. Reachable Pairs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1474</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集 + 逆向处理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2024 February Contest, Gold
+Problem 1. Bessla Motors</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1401</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dijastra跑多源最短路</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2024 February Contest, Gold
+Problem 3. Quantum Moochanics</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1403</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学 + 优先队列 + 双向链表（多物体碰撞问题）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2024 February Contest, Gold
+Problem 2. Milk Exchange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1402</t>
+  </si>
+  <si>
+    <t>区间贡献 + 单调栈 + 二阶差分</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3502,8 +3698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2EC434-4972-4C28-AD0E-1D19D4297636}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3712,7 +3908,7 @@
         <v>199</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>333</v>
@@ -3842,114 +4038,262 @@
         <v>200</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="3"/>
     </row>
@@ -4080,9 +4424,21 @@
     <hyperlink ref="B19" r:id="rId18" xr:uid="{1A4FDBD4-5695-4B69-9571-94589710D59D}"/>
     <hyperlink ref="B20" r:id="rId19" xr:uid="{734FE5BB-C956-47D0-95D2-91E4F839DCB0}"/>
     <hyperlink ref="B21" r:id="rId20" xr:uid="{59AF3CBE-EDA1-458B-84F2-6C6510A04F1D}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{6D1D1835-19BC-44D1-881D-3BF182F68D25}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{4626E947-4529-4447-B4B0-9C67FD3BF4B7}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{AB3E67E1-61FD-497B-AA69-7C87CCC51450}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{AF79DBA2-986C-4A0E-BE96-5ABF3403D162}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{6CB08295-6CF3-417C-BC6F-D25E146D9E3B}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{226C6A8A-6E2C-4712-A0BC-EA6122511E00}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{D7C3553E-7DF2-401A-B313-038ECC371276}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{D34969D6-73B6-4A0D-A80B-02324223D641}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{5BE40C71-E52E-4DAD-8E3E-2FC5BB61A59B}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{16D33CD2-2102-442C-B882-28C15C36C565}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{DA8A1478-64D1-4AB2-B166-FB6A1F81A5CF}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{E2BED4A7-35F2-4946-A7C2-EB1D359E9D10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
 
@@ -4091,7 +4447,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4108,7 +4464,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>389</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -4541,8 +4897,18 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="33" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
@@ -4740,8 +5106,9 @@
     <hyperlink ref="B29" r:id="rId23" xr:uid="{82F0A351-E8EB-4C9B-AF5F-3726BABAF39C}"/>
     <hyperlink ref="B30" r:id="rId24" xr:uid="{D5D8E439-2470-47BE-8587-4C3370CB4A55}"/>
     <hyperlink ref="B31" r:id="rId25" xr:uid="{BEAD5244-45CB-450D-878E-88704AD119C3}"/>
+    <hyperlink ref="B32" r:id="rId26" xr:uid="{E3CFF130-649F-4FB4-8ADB-E1B66D59A7F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\python\usaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80B0088-152F-4205-A73D-A88757B82D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5E6CC4-5CDE-4E53-8433-6FEA7AB381AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="984" yWindow="2172" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bronze" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Silver!$A$1:$V$72</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="417">
   <si>
     <t>难度</t>
   </si>
@@ -1624,6 +1623,57 @@
   </si>
   <si>
     <t>区间贡献 + 单调栈 + 二阶差分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2023 December Contest, Gold
+Problem 1. Flight Routes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1353</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图 + dp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2023 December Contest, Gold
+Problem 2. Minimum Longest Trip</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1354</t>
+  </si>
+  <si>
+    <t>拓扑排序 + dp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2022 December Contest, Gold
+Problem 1. Bribing Friends</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1257</t>
+  </si>
+  <si>
+    <t>背包 + 前后缀dp + 贪心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2022 December Contest, Gold
+Problem 3. Strongest Friendship Group</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1259</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓扑排序 + 并查集</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3699,7 +3749,7 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4232,7 +4282,7 @@
         <v>403</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>211</v>
+        <v>388</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>404</v>
@@ -4242,20 +4292,66 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
@@ -4436,9 +4532,11 @@
     <hyperlink ref="B31" r:id="rId30" xr:uid="{16D33CD2-2102-442C-B882-28C15C36C565}"/>
     <hyperlink ref="B32" r:id="rId31" xr:uid="{DA8A1478-64D1-4AB2-B166-FB6A1F81A5CF}"/>
     <hyperlink ref="B33" r:id="rId32" xr:uid="{E2BED4A7-35F2-4946-A7C2-EB1D359E9D10}"/>
+    <hyperlink ref="B35" r:id="rId33" xr:uid="{FF8333F2-5BBE-4DA8-BB9E-F03F619A85D3}"/>
+    <hyperlink ref="B38" r:id="rId34" xr:uid="{21ADAA30-073D-4766-8D98-CC2958098031}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
 
